--- a/data-raw/data-tidy/hack-tianyan/hub/match-tianyan-tot57-2021-08-19.xlsx
+++ b/data-raw/data-tidy/hack-tianyan/hub/match-tianyan-tot57-2021-08-19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\data-tidy\hack-tianyan\hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84A1F08-1D11-4519-9C3A-F1F872327D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F8667B-92A5-4771-932F-371E309CF9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9878" yWindow="8002" windowWidth="24496" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="212">
   <si>
     <t>index</t>
   </si>
@@ -275,15 +275,6 @@
   </si>
   <si>
     <t>上海</t>
-  </si>
-  <si>
-    <t>中国科学院植物研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京市海淀区香山南辛村20号  </t>
-  </si>
-  <si>
-    <t>https://www.tianyancha.com/company/10157336</t>
   </si>
   <si>
     <t>青岛海洋地质研究所</t>
@@ -1111,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,12 +1628,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>206</v>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>85</v>
@@ -1656,83 +1647,86 @@
       <c r="F20" t="s">
         <v>87</v>
       </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>98</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
@@ -1741,27 +1735,27 @@
         <v>100</v>
       </c>
       <c r="G23" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>101</v>
       </c>
-      <c r="H23" t="s">
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
         <v>102</v>
-      </c>
-      <c r="I23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" t="s">
-        <v>207</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
@@ -1770,18 +1764,18 @@
         <v>103</v>
       </c>
       <c r="G24" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="H24" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>104</v>
@@ -1798,19 +1792,16 @@
       <c r="F25" t="s">
         <v>106</v>
       </c>
-      <c r="G25" t="s">
-        <v>101</v>
-      </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>107</v>
@@ -1836,59 +1827,59 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" t="s">
-        <v>24</v>
+        <v>114</v>
+      </c>
+      <c r="G27" t="s">
+        <v>115</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" t="s">
         <v>118</v>
       </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>119</v>
@@ -1914,7 +1905,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>122</v>
@@ -1926,53 +1917,53 @@
         <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="G30" t="s">
+        <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
         <v>127</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
         <v>128</v>
-      </c>
-      <c r="G31" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="H32" t="s">
         <v>24</v>
@@ -1983,7 +1974,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>129</v>
@@ -1992,13 +1983,13 @@
         <v>129</v>
       </c>
       <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
         <v>130</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>131</v>
       </c>
       <c r="H33" t="s">
         <v>24</v>
@@ -2009,13 +2000,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
@@ -2024,7 +2015,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H34" t="s">
         <v>24</v>
@@ -2035,22 +2026,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H35" t="s">
         <v>24</v>
@@ -2061,9 +2040,21 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
         <v>136</v>
       </c>
       <c r="H36" t="s">
@@ -2075,7 +2066,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>137</v>
@@ -2101,7 +2092,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>140</v>
@@ -2118,74 +2109,77 @@
       <c r="F38" t="s">
         <v>142</v>
       </c>
+      <c r="G38" t="s">
+        <v>143</v>
+      </c>
       <c r="H38" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H39" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="I39" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G40" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>152</v>
@@ -2202,19 +2196,16 @@
       <c r="F41" t="s">
         <v>154</v>
       </c>
-      <c r="G41" t="s">
-        <v>96</v>
-      </c>
       <c r="H41" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>155</v>
@@ -2226,10 +2217,10 @@
         <v>156</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H42" t="s">
         <v>24</v>
@@ -2240,19 +2231,19 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
         <v>161</v>
@@ -2266,22 +2257,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>162</v>
       </c>
       <c r="C44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
         <v>163</v>
       </c>
-      <c r="D44" t="s">
-        <v>74</v>
-      </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H44" t="s">
         <v>24</v>
@@ -2292,19 +2283,19 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E45" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="F45" t="s">
         <v>168</v>
@@ -2318,7 +2309,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>169</v>
@@ -2326,25 +2317,25 @@
       <c r="C46" t="s">
         <v>169</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" t="s">
         <v>170</v>
-      </c>
-      <c r="E46" t="s">
-        <v>17</v>
       </c>
       <c r="F46" t="s">
         <v>171</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="I46" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>172</v>
@@ -2352,34 +2343,37 @@
       <c r="C47" t="s">
         <v>172</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>210</v>
+      <c r="D47" t="s">
+        <v>173</v>
       </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
         <v>174</v>
       </c>
+      <c r="G47" t="s">
+        <v>175</v>
+      </c>
       <c r="H47" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I47" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>175</v>
-      </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
         <v>17</v>
@@ -2387,28 +2381,25 @@
       <c r="F48" t="s">
         <v>177</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
         <v>178</v>
       </c>
-      <c r="H48" t="s">
-        <v>92</v>
-      </c>
-      <c r="I48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" t="s">
         <v>179</v>
-      </c>
-      <c r="D49" t="s">
-        <v>17</v>
       </c>
       <c r="E49" t="s">
         <v>17</v>
@@ -2425,7 +2416,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>181</v>
@@ -2442,85 +2433,85 @@
       <c r="F50" t="s">
         <v>183</v>
       </c>
+      <c r="G50" t="s">
+        <v>93</v>
+      </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="I50" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>184</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E51" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>186</v>
-      </c>
-      <c r="G51" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="H51" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H52" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
         <v>188</v>
       </c>
-      <c r="D52" t="s">
+      <c r="C53" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" t="s">
         <v>189</v>
       </c>
-      <c r="E52" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
         <v>190</v>
       </c>
-      <c r="H52" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="H53" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="I53" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>191</v>
@@ -2532,62 +2523,62 @@
         <v>192</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="F55" t="s">
         <v>197</v>
       </c>
       <c r="H55" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
         <v>199</v>
-      </c>
-      <c r="C56" t="s">
-        <v>199</v>
-      </c>
-      <c r="D56" t="s">
-        <v>108</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" t="s">
-        <v>200</v>
       </c>
       <c r="H56" t="s">
         <v>24</v>
@@ -2598,19 +2589,19 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" t="s">
         <v>201</v>
-      </c>
-      <c r="C57" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" t="s">
-        <v>166</v>
-      </c>
-      <c r="E57" t="s">
-        <v>17</v>
       </c>
       <c r="F57" t="s">
         <v>202</v>
@@ -2619,32 +2610,6 @@
         <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>203</v>
-      </c>
-      <c r="C58" t="s">
-        <v>203</v>
-      </c>
-      <c r="D58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" t="s">
-        <v>204</v>
-      </c>
-      <c r="F58" t="s">
-        <v>205</v>
-      </c>
-      <c r="H58" t="s">
-        <v>24</v>
-      </c>
-      <c r="I58" t="s">
         <v>24</v>
       </c>
     </row>
